--- a/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Creuse/Liste_des_villes_et_villages_fleuris_de_la_Creuse.xlsx
+++ b/biology/Botanique/Liste_des_villes_et_villages_fleuris_de_la_Creuse/Liste_des_villes_et_villages_fleuris_de_la_Creuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des villes et villages fleuris de la Creuse dresse le nom des communes récompensées par le concours des villes et villages fleuris dans le département de la Creuse, en Nouvelle-Aquitaine.
-En 2023, 12 communes du département figurent au palmarès du concours[1], soit le même nombre de communes par rapport au palmarès de 2022.
+En 2023, 12 communes du département figurent au palmarès du concours, soit le même nombre de communes par rapport au palmarès de 2022.
 </t>
         </is>
       </c>
@@ -512,28 +524,219 @@
           <t>Communes labellisées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication de hausse, de baisse ou de stagnation, pour la catégorie 4 fleurs, correspond au précédent résultat (année 2023 par rapport à 2022). Les autres catégories (3, 2 et 1 fleur) n'ont pas d'indications car leurs différents résultats ne reflètent pas obligatoirement une signification positive ou négative.
-Répartition selon le nombre de fleurs
-Les 12 communes sont réparties comme suit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition selon le nombre de fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les 12 communes sont réparties comme suit :
 4 fleurs : aucune commune. 
 3 fleurs : 2 communes.
 2 fleurs : 6 communes.
-1 fleur : 4 communes.
-Liste des communes
-La liste suivante répertorie les communes de la Creuse labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
-3 fleurs
+1 fleur : 4 communes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste suivante répertorie les communes de la Creuse labellisées « Ville ou village fleuri »[a] (la ou les communes promues en 2023 sont identifiées en caractères gras) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3 fleurs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Guéret
 La Souterraine
-2 fleurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 fleurs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Azerables
 Boussac-Bourg
 Crocq
 La Celle-Dunoise
 Lioux-les-Monges
 Vigeville
-1 fleur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_villes_et_villages_fleuris_de_la_Creuse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Communes labellisées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des communes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1 fleur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dun-le-Palestel
 Felletin
 Saint-Maixant
